--- a/Assignment04.xlsx
+++ b/Assignment04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smweb\OneDrive\Desktop\School\Firm Decisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC6A1F2-CEC9-4771-8D57-873462972FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA33BEB-B035-464C-A017-245999D806D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58050" yWindow="11850" windowWidth="19725" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60360" yWindow="12135" windowWidth="16395" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="50% Forward Buy" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Fixed payment cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,7 +159,10 @@
     <t>Hint: Remember we only took reduction in margin of baseline units as a cost</t>
   </si>
   <si>
-    <t>VCM</t>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t>0% Baseline</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,41 +181,42 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -404,7 +408,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -422,7 +426,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -433,7 +436,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -443,13 +445,9 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -901,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1108,7 @@
       <c r="G12" s="2">
         <v>0.7</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="28">
         <v>0.7</v>
       </c>
       <c r="I12" s="9"/>
@@ -1119,27 +1117,27 @@
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f>EXP(-$C$4*LN(1-C10) +$C$5*C11 +$C$6*C12)</f>
         <v>1.2938294890387669</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <f>EXP(-$C$4*LN(1-D10) +$C$5*D11 +$C$6*1)</f>
         <v>2.9793537570428734</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f>EXP(-$C$4*LN(1-E10) +$C$5*E11 +$C$6*1)</f>
         <v>3.9630598526056211</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <f>EXP(-$F$4*LN(1-F10) +$F$5*F11 +$F$6*F12)</f>
         <v>1.3036621224318528</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <f>EXP(-$F$4*LN(1-G10) +$F$5*G11 +$F$6*1)</f>
         <v>3.7986560053359932</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <f>EXP(-$F$4*LN(1-H10) +$F$5*H11 +$F$6*1)</f>
         <v>3.7986560053359932</v>
       </c>
@@ -1148,26 +1146,27 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="9">
-        <v>0.55000000000000004</v>
+        <f>C15-C17</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D14" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="E14" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="F14" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="G14" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.65</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1190,7 +1189,7 @@
       <c r="G15" s="2">
         <v>1.2</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
         <v>1.2</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1221,7 +1220,7 @@
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
@@ -1232,28 +1231,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="9">
-        <f>C15-C14</f>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:H17" si="1">D15-D14</f>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0.55000000000000004</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>31</v>
@@ -1265,27 +1258,27 @@
       </c>
       <c r="C18" s="9">
         <f>C16-C14</f>
-        <v>0.47</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:H18" si="2">D16-D14</f>
-        <v>0.47</v>
+        <f t="shared" ref="D18:H18" si="1">D16-D14</f>
+        <v>0.37</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
+        <f t="shared" si="1"/>
+        <v>0.37</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
+        <f t="shared" si="1"/>
+        <v>0.37</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
@@ -1298,35 +1291,35 @@
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f>EXP($C$7-ABS($C$4)*LN($C$15))</f>
         <v>9751.5210109544641</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="3">EXP($C$7-ABS($C$4)*LN($C$15))</f>
+        <f t="shared" ref="D21:E21" si="2">EXP($C$7-ABS($C$4)*LN($C$15))</f>
         <v>9751.5210109544641</v>
       </c>
-      <c r="E21" s="21">
-        <f t="shared" si="3"/>
+      <c r="E21" s="20">
+        <f t="shared" si="2"/>
         <v>9751.5210109544641</v>
       </c>
       <c r="F21" s="1">
@@ -1334,11 +1327,11 @@
         <v>17032.561854814161</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:H21" si="4">EXP($F$7-ABS($F$4)*LN($F$15))</f>
+        <f t="shared" ref="G21:H21" si="3">EXP($F$7-ABS($F$4)*LN($F$15))</f>
         <v>17032.561854814161</v>
       </c>
-      <c r="H21" s="21">
-        <f t="shared" si="4"/>
+      <c r="H21" s="20">
+        <f t="shared" si="3"/>
         <v>17032.561854814161</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1349,28 +1342,28 @@
       <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:H22" si="5">C23-C21</f>
+      <c r="C22" s="17">
+        <f t="shared" ref="C22:H22" si="4">C23-C21</f>
         <v>2865.2844359995506</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19301.709749915237</v>
       </c>
-      <c r="E22" s="21">
-        <f t="shared" si="5"/>
+      <c r="E22" s="20">
+        <f t="shared" si="4"/>
         <v>28894.340409399352</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5172.1438832846834</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47668.28152123242</v>
       </c>
-      <c r="H22" s="21">
-        <f t="shared" si="5"/>
+      <c r="H22" s="20">
+        <f t="shared" si="4"/>
         <v>47668.28152123242</v>
       </c>
       <c r="I22" s="2"/>
@@ -1379,28 +1372,28 @@
       <c r="B23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18">
-        <f t="shared" ref="C23:H23" si="6">C21*C13</f>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="5">C21*C13</f>
         <v>12616.805446954015</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29053.230760869701</v>
       </c>
-      <c r="E23" s="21">
-        <f t="shared" si="6"/>
+      <c r="E23" s="20">
+        <f t="shared" si="5"/>
         <v>38645.861420353816</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22204.705738098844</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64700.843376046578</v>
       </c>
-      <c r="H23" s="21">
-        <f t="shared" si="6"/>
+      <c r="H23" s="20">
+        <f t="shared" si="5"/>
         <v>64700.843376046578</v>
       </c>
       <c r="I23" s="2"/>
@@ -1409,13 +1402,13 @@
       <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>50</v>
       </c>
       <c r="F24" s="1">
@@ -1424,7 +1417,7 @@
       <c r="G24" s="1">
         <v>50</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>50</v>
       </c>
       <c r="I24" s="2"/>
@@ -1433,28 +1426,28 @@
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18">
-        <f t="shared" ref="C25:H25" si="7">C21*C24/100</f>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25:H25" si="6">C21*C24/100</f>
         <v>4875.7605054772321</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4875.7605054772321</v>
       </c>
-      <c r="E25" s="21">
-        <f t="shared" si="7"/>
+      <c r="E25" s="20">
+        <f t="shared" si="6"/>
         <v>4875.7605054772321</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8516.2809274070805</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8516.2809274070805</v>
       </c>
-      <c r="H25" s="21">
-        <f t="shared" si="7"/>
+      <c r="H25" s="20">
+        <f t="shared" si="6"/>
         <v>8516.2809274070805</v>
       </c>
       <c r="I25" s="2"/>
@@ -1463,28 +1456,28 @@
       <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18">
-        <f t="shared" ref="C26:H26" si="8">C23+C25</f>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:H26" si="7">C23+C25</f>
         <v>17492.565952431247</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33928.991266346929</v>
       </c>
-      <c r="E26" s="21">
-        <f t="shared" si="8"/>
+      <c r="E26" s="20">
+        <f t="shared" si="7"/>
         <v>43521.621925831045</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30720.986665505923</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>73217.12430345366</v>
       </c>
-      <c r="H26" s="21">
-        <f t="shared" si="8"/>
+      <c r="H26" s="20">
+        <f t="shared" si="7"/>
         <v>73217.12430345366</v>
       </c>
       <c r="I26" s="2"/>
@@ -1493,41 +1486,41 @@
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <f>C18*C22</f>
-        <v>1346.6836849197887</v>
+        <v>1060.155241319834</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:H28" si="9">D18*D22</f>
-        <v>9071.8035824601611</v>
+        <f t="shared" ref="D28:H28" si="8">D18*D22</f>
+        <v>7141.6326074686376</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="9"/>
-        <v>13580.339992417696</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="9"/>
-        <v>2430.9076251438009</v>
+        <f t="shared" si="8"/>
+        <v>10690.90595147776</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="8"/>
+        <v>1913.6932368153327</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="9"/>
-        <v>22404.092314979236</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="9"/>
-        <v>22404.092314979236</v>
+        <f t="shared" si="8"/>
+        <v>17637.264162855994</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="8"/>
+        <v>17637.264162855994</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1535,31 +1528,31 @@
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <f>C21*(C15*ABS(C10))</f>
         <v>1755.2737819718034</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:E29" si="10">D21*(D15*ABS(D10))</f>
+        <f t="shared" ref="D29:E29" si="9">D21*(D15*ABS(D10))</f>
         <v>1755.2737819718034</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1755.2737819718034</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f>F21*(F15*ABS(F10))</f>
         <v>3065.8611338665487</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:H29" si="11">G21*(G15*ABS(G10))</f>
+        <f t="shared" ref="G29:H29" si="10">G21*(G15*ABS(G10))</f>
         <v>3065.8611338665487</v>
       </c>
-      <c r="H29" s="21">
-        <f t="shared" si="11"/>
+      <c r="H29" s="20">
+        <f t="shared" si="10"/>
         <v>3065.8611338665487</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="35" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -1570,7 +1563,7 @@
       <c r="B30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>0</v>
       </c>
       <c r="D30" s="1">
@@ -1579,13 +1572,13 @@
       <c r="E30" s="1">
         <v>4500</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>5000</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>6800</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -1596,28 +1589,28 @@
       <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <f>(C15-C16)*C25</f>
         <v>877.63689098590146</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="C31:H31" si="12">(D15-D16)*D25</f>
+        <f t="shared" ref="D31:H31" si="11">(D15-D16)*D25</f>
         <v>877.63689098590146</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>877.63689098590146</v>
       </c>
-      <c r="F31" s="18">
-        <f t="shared" si="12"/>
+      <c r="F31" s="17">
+        <f t="shared" si="11"/>
         <v>1532.9305669332739</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1532.9305669332739</v>
       </c>
-      <c r="H31" s="21">
-        <f t="shared" si="12"/>
+      <c r="H31" s="20">
+        <f t="shared" si="11"/>
         <v>1532.9305669332739</v>
       </c>
       <c r="I31" s="2"/>
@@ -1626,31 +1619,31 @@
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <f>SUM(C29:C31)</f>
         <v>2632.9106729577047</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:E32" si="13">SUM(D29:D31)</f>
+        <f t="shared" ref="D32:E32" si="12">SUM(D29:D31)</f>
         <v>5632.9106729577043</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7132.9106729577043</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <f>SUM(F29:F31)</f>
         <v>4598.7917007998221</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ref="G32:H32" si="14">SUM(G29:G31)</f>
+        <f t="shared" ref="G32:H32" si="13">SUM(G29:G31)</f>
         <v>9598.7917007998221</v>
       </c>
-      <c r="H32" s="21">
-        <f t="shared" si="14"/>
+      <c r="H32" s="20">
+        <f t="shared" si="13"/>
         <v>11398.791700799822</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="35" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1658,61 +1651,61 @@
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <f>C28-C32</f>
-        <v>-1286.226988037916</v>
-      </c>
-      <c r="D33" s="20">
-        <f t="shared" ref="D33:E33" si="15">D28-D32</f>
-        <v>3438.8929095024569</v>
-      </c>
-      <c r="E33" s="20">
+        <v>-1572.7554316378707</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" ref="D33:E33" si="14">D28-D32</f>
+        <v>1508.7219345109334</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="14"/>
+        <v>3557.9952785200558</v>
+      </c>
+      <c r="F33" s="18">
+        <f>F28-F32</f>
+        <v>-2685.0984639844892</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33:H33" si="15">G28-G32</f>
+        <v>8038.4724620561719</v>
+      </c>
+      <c r="H33" s="21">
         <f t="shared" si="15"/>
-        <v>6447.4293194599913</v>
-      </c>
-      <c r="F33" s="19">
-        <f>F28-F32</f>
-        <v>-2167.8840756560212</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" ref="G33:H33" si="16">G28-G32</f>
-        <v>12805.300614179414</v>
-      </c>
-      <c r="H33" s="22">
+        <v>6238.4724620561719</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="B34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="23">
+        <f t="shared" ref="C34:H34" si="16">100*C33/C32</f>
+        <v>-59.734477428020803</v>
+      </c>
+      <c r="D34" s="24">
         <f t="shared" si="16"/>
-        <v>11005.300614179414</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.6">
-      <c r="B34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="24">
-        <f t="shared" ref="C34:H34" si="17">100*C33/C32</f>
-        <v>-48.851903759918329</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="17"/>
-        <v>61.050016752649441</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="17"/>
-        <v>90.389878901799378</v>
-      </c>
-      <c r="F34" s="24">
-        <f t="shared" si="17"/>
-        <v>-47.140297206307096</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="17"/>
-        <v>133.40533906066958</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="17"/>
-        <v>96.547957915637696</v>
+        <v>26.784055741447435</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="16"/>
+        <v>49.881394029076091</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="16"/>
+        <v>-58.387042481560897</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="16"/>
+        <v>83.744628622229229</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="16"/>
+        <v>54.729243465502009</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -1733,18 +1726,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD4FCB-1F8A-4AAF-A70D-59AA73DAEA02}">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="23.953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.31640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1753,7 +1747,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1765,8 +1759,9 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
@@ -1775,9 +1770,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="9"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="H3" s="2"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1789,10 +1786,12 @@
       <c r="F4" s="11">
         <v>-1.8973500000000001</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1804,10 +1803,12 @@
       <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1819,10 +1820,12 @@
       <c r="F6" s="11">
         <v>1.0694699999999999</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1834,19 +1837,23 @@
       <c r="F7" s="11">
         <v>10.08881</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="H8" s="16"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1854,10 +1861,12 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1873,14 +1882,16 @@
       <c r="F10" s="9">
         <v>-0.15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>-0.15</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="3">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
@@ -1896,14 +1907,16 @@
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1916,69 +1929,76 @@
       <c r="E12" s="2">
         <v>0.7</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.7</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="28">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f>EXP(-$C$4*LN(1-C10) +$C$5*C11 +$C$6*C12)</f>
         <v>1.2938294890387669</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <f>EXP(-$C$4*LN(1-D10) +$C$5*D11 +$C$6*1)</f>
         <v>2.9793537570428734</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f>EXP(-$C$4*LN(1-E10) +$C$5*E11 +$C$6*1)</f>
         <v>3.9630598526056211</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <f>EXP(-$F$4*LN(1-F10) +$F$5*F11 +$F$6*F12)</f>
         <v>1.3036621224318528</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <f>EXP(-$F$4*LN(1-G10) +$F$5*G11 +$F$6*1)</f>
         <v>3.7986560053359932</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <f>EXP(-$F$4*LN(1-H10) +$F$5*H11 +$F$6*1)</f>
         <v>3.7986560053359932</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B14" s="28" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="9">
-        <v>0.55000000000000004</v>
+        <f>C15-C17</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D14" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="E14" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="F14" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="G14" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.6">
+        <v>0.65</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
@@ -1997,11 +2017,13 @@
       <c r="G15" s="2">
         <v>1.2</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -2025,103 +2047,107 @@
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I16" s="38"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="9">
-        <f>C15-C14</f>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:H17" si="1">D15-D14</f>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="9">
         <f>C16-C14</f>
-        <v>0.47</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:H18" si="2">D16-D14</f>
-        <v>0.47</v>
+        <f t="shared" ref="D18:H18" si="1">D16-D14</f>
+        <v>0.37</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
+        <f t="shared" si="1"/>
+        <v>0.37</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
+        <f t="shared" si="1"/>
+        <v>0.37</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="2"/>
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.6">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B19" s="15"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="H19" s="28"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f>EXP($C$7-ABS($C$4)*LN($C$15))</f>
         <v>9751.5210109544641</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="3">EXP($C$7-ABS($C$4)*LN($C$15))</f>
+        <f t="shared" ref="D21:E21" si="2">EXP($C$7-ABS($C$4)*LN($C$15))</f>
         <v>9751.5210109544641</v>
       </c>
-      <c r="E21" s="21">
-        <f t="shared" si="3"/>
+      <c r="E21" s="20">
+        <f t="shared" si="2"/>
         <v>9751.5210109544641</v>
       </c>
       <c r="F21" s="1">
@@ -2129,83 +2155,89 @@
         <v>17032.561854814161</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:H21" si="4">EXP($F$7-ABS($F$4)*LN($F$15))</f>
+        <f t="shared" ref="G21:H21" si="3">EXP($F$7-ABS($F$4)*LN($F$15))</f>
         <v>17032.561854814161</v>
       </c>
-      <c r="H21" s="21">
-        <f t="shared" si="4"/>
+      <c r="H21" s="20">
+        <f t="shared" si="3"/>
         <v>17032.561854814161</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I21" s="38"/>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:H22" si="5">C23-C21</f>
+      <c r="C22" s="17">
+        <f t="shared" ref="C22:H22" si="4">C23-C21</f>
         <v>2865.2844359995506</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19301.709749915237</v>
       </c>
-      <c r="E22" s="21">
-        <f t="shared" si="5"/>
+      <c r="E22" s="20">
+        <f t="shared" si="4"/>
         <v>28894.340409399352</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5172.1438832846834</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47668.28152123242</v>
       </c>
-      <c r="H22" s="21">
-        <f t="shared" si="5"/>
+      <c r="H22" s="20">
+        <f t="shared" si="4"/>
         <v>47668.28152123242</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I22" s="38"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18">
-        <f t="shared" ref="C23:H23" si="6">C21*C13</f>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="5">C21*C13</f>
         <v>12616.805446954015</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29053.230760869701</v>
       </c>
-      <c r="E23" s="21">
-        <f t="shared" si="6"/>
+      <c r="E23" s="20">
+        <f t="shared" si="5"/>
         <v>38645.861420353816</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22204.705738098844</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64700.843376046578</v>
       </c>
-      <c r="H23" s="21">
-        <f t="shared" si="6"/>
+      <c r="H23" s="20">
+        <f t="shared" si="5"/>
         <v>64700.843376046578</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I23" s="38"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
       <c r="F24" s="1">
@@ -2214,142 +2246,156 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="H24" s="20">
+        <v>0</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18">
-        <f t="shared" ref="C25:H25" si="7">C21*C24/100</f>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25:H25" si="6">C21*C24/100</f>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18">
-        <f t="shared" ref="C26:H26" si="8">C23+C25</f>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:H26" si="7">C23+C25</f>
         <v>12616.805446954015</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>29053.230760869701</v>
       </c>
-      <c r="E26" s="21">
-        <f t="shared" si="8"/>
+      <c r="E26" s="20">
+        <f t="shared" si="7"/>
         <v>38645.861420353816</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22204.705738098844</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64700.843376046578</v>
       </c>
-      <c r="H26" s="21">
-        <f t="shared" si="8"/>
+      <c r="H26" s="20">
+        <f t="shared" si="7"/>
         <v>64700.843376046578</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <f>C18*C22</f>
-        <v>1346.6836849197887</v>
+        <v>1060.155241319834</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:H28" si="9">D18*D22</f>
-        <v>9071.8035824601611</v>
+        <f t="shared" ref="D28:H28" si="8">D18*D22</f>
+        <v>7141.6326074686376</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="9"/>
-        <v>13580.339992417696</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="9"/>
-        <v>2430.9076251438009</v>
+        <f t="shared" si="8"/>
+        <v>10690.90595147776</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="8"/>
+        <v>1913.6932368153327</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="9"/>
-        <v>22404.092314979236</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="9"/>
-        <v>22404.092314979236</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.6">
+        <f t="shared" si="8"/>
+        <v>17637.264162855994</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="8"/>
+        <v>17637.264162855994</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <f>C21*(C15*ABS(C10))</f>
         <v>1755.2737819718034</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:E29" si="10">D21*(D15*ABS(D10))</f>
+        <f t="shared" ref="D29:E29" si="9">D21*(D15*ABS(D10))</f>
         <v>1755.2737819718034</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1755.2737819718034</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f>F21*(F15*ABS(F10))</f>
         <v>3065.8611338665487</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:H29" si="11">G21*(G15*ABS(G10))</f>
+        <f t="shared" ref="G29:H29" si="10">G21*(G15*ABS(G10))</f>
         <v>3065.8611338665487</v>
       </c>
-      <c r="H29" s="21">
-        <f t="shared" si="11"/>
+      <c r="H29" s="20">
+        <f t="shared" si="10"/>
         <v>3065.8611338665487</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I29" s="38"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>0</v>
       </c>
       <c r="D30" s="1">
@@ -2358,131 +2404,140 @@
       <c r="E30" s="1">
         <v>4500</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>5000</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>6800</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I30" s="38"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <f>(C15-C16)*C25</f>
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:H31" si="12">(D15-D16)*D25</f>
+        <f t="shared" ref="D31:H31" si="11">(D15-D16)*D25</f>
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <f>SUM(C29:C31)</f>
         <v>1755.2737819718034</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:E32" si="13">SUM(D29:D31)</f>
+        <f t="shared" ref="D32:E32" si="12">SUM(D29:D31)</f>
         <v>4755.2737819718031</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6255.2737819718031</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <f>SUM(F29:F31)</f>
         <v>3065.8611338665487</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ref="G32:H32" si="14">SUM(G29:G31)</f>
+        <f t="shared" ref="G32:H32" si="13">SUM(G29:G31)</f>
         <v>8065.8611338665487</v>
       </c>
-      <c r="H32" s="21">
-        <f t="shared" si="14"/>
+      <c r="H32" s="20">
+        <f t="shared" si="13"/>
         <v>9865.8611338665487</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="I32" s="38"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <f>C28-C32</f>
-        <v>-408.5900970520147</v>
-      </c>
-      <c r="D33" s="20">
-        <f t="shared" ref="D33:E33" si="15">D28-D32</f>
-        <v>4316.529800488358</v>
-      </c>
-      <c r="E33" s="20">
+        <v>-695.1185406519694</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" ref="D33:E33" si="14">D28-D32</f>
+        <v>2386.3588254968345</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="14"/>
+        <v>4435.6321695059569</v>
+      </c>
+      <c r="F33" s="18">
+        <f>F28-F32</f>
+        <v>-1152.167897051216</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33:H33" si="15">G28-G32</f>
+        <v>9571.4030289894454</v>
+      </c>
+      <c r="H33" s="21">
         <f t="shared" si="15"/>
-        <v>7325.0662104458925</v>
-      </c>
-      <c r="F33" s="19">
-        <f>F28-F32</f>
-        <v>-634.95350872274776</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" ref="G33:H33" si="16">G28-G32</f>
-        <v>14338.231181112687</v>
-      </c>
-      <c r="H33" s="22">
+        <v>7771.4030289894454</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="23">
+        <f t="shared" ref="C34:H34" si="16">100*C33/C32</f>
+        <v>-39.601716142031208</v>
+      </c>
+      <c r="D34" s="24">
         <f t="shared" si="16"/>
-        <v>12538.231181112687</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="24">
-        <f t="shared" ref="C34:H34" si="17">100*C33/C32</f>
-        <v>-23.277855639877508</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="17"/>
-        <v>90.773528473863863</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="17"/>
-        <v>117.10224789132836</v>
-      </c>
-      <c r="F34" s="42">
-        <f t="shared" si="17"/>
-        <v>-20.710445809460662</v>
-      </c>
-      <c r="G34" s="43">
-        <f t="shared" si="17"/>
-        <v>177.76441898943705</v>
-      </c>
-      <c r="H34" s="44">
-        <f t="shared" si="17"/>
-        <v>127.0870429958992</v>
-      </c>
+        <v>50.183416032616236</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="16"/>
+        <v>70.910280254875516</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="16"/>
+        <v>-37.580563722341367</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="16"/>
+        <v>118.66560643849297</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="16"/>
+        <v>78.770650869112131</v>
+      </c>
+      <c r="I34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
